--- a/data/pca/factorExposure/factorExposure_2012-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002434094179018145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001858515168191428</v>
+      </c>
+      <c r="C2">
+        <v>0.02900802387925546</v>
+      </c>
+      <c r="D2">
+        <v>0.004697734560882583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0007202546395021663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006665454053494039</v>
+      </c>
+      <c r="C4">
+        <v>0.08393097709779405</v>
+      </c>
+      <c r="D4">
+        <v>0.06737760703700006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006151901263180091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01517329232647668</v>
+      </c>
+      <c r="C6">
+        <v>0.1185614842051721</v>
+      </c>
+      <c r="D6">
+        <v>0.02076001527989677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001197080352421402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004986131123532725</v>
+      </c>
+      <c r="C7">
+        <v>0.05925434012720882</v>
+      </c>
+      <c r="D7">
+        <v>0.0313739596708239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007657648260787728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004930037427265089</v>
+      </c>
+      <c r="C8">
+        <v>0.0358868037846654</v>
+      </c>
+      <c r="D8">
+        <v>0.0388597737573088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0002213743875130677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005609207425606587</v>
+      </c>
+      <c r="C9">
+        <v>0.07202505268125167</v>
+      </c>
+      <c r="D9">
+        <v>0.07359576903049844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0006447361493422109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002025148755083661</v>
+      </c>
+      <c r="C10">
+        <v>0.05199316936059444</v>
+      </c>
+      <c r="D10">
+        <v>-0.1853219079925778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.000340750250756977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005928283754454546</v>
+      </c>
+      <c r="C11">
+        <v>0.08052594659487274</v>
+      </c>
+      <c r="D11">
+        <v>0.06581976714330902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001914859834882031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004484882066095955</v>
+      </c>
+      <c r="C12">
+        <v>0.06506250757644012</v>
+      </c>
+      <c r="D12">
+        <v>0.05031620899885221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002687406654455843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008715705395077992</v>
+      </c>
+      <c r="C13">
+        <v>0.07128691841534963</v>
+      </c>
+      <c r="D13">
+        <v>0.05782010408192848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001498555287045179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008144247103392528</v>
+      </c>
+      <c r="C14">
+        <v>0.04343842018016981</v>
+      </c>
+      <c r="D14">
+        <v>0.01135004519489514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001866685287709864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005950885145979179</v>
+      </c>
+      <c r="C15">
+        <v>0.04072741173232999</v>
+      </c>
+      <c r="D15">
+        <v>0.02861355052105358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0006855004835061912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005407960637275153</v>
+      </c>
+      <c r="C16">
+        <v>0.06469758748449558</v>
+      </c>
+      <c r="D16">
+        <v>0.05786090003841018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.003141261914183733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008826539893947745</v>
+      </c>
+      <c r="C20">
+        <v>0.06411604341130316</v>
+      </c>
+      <c r="D20">
+        <v>0.05142414749772352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005536184525372941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00931172303300809</v>
+      </c>
+      <c r="C21">
+        <v>0.02016690889585509</v>
+      </c>
+      <c r="D21">
+        <v>0.0393074225744867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02023322436227473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00816537513304705</v>
+      </c>
+      <c r="C22">
+        <v>0.08674550845549792</v>
+      </c>
+      <c r="D22">
+        <v>0.127671493309987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01989589615695734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007872921380045127</v>
+      </c>
+      <c r="C23">
+        <v>0.08715298384625553</v>
+      </c>
+      <c r="D23">
+        <v>0.1287927852995629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0009419541830150925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005938619729660959</v>
+      </c>
+      <c r="C24">
+        <v>0.07709636447943549</v>
+      </c>
+      <c r="D24">
+        <v>0.06669991158666444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002317737412813698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003429834384060972</v>
+      </c>
+      <c r="C25">
+        <v>0.07802493690254163</v>
+      </c>
+      <c r="D25">
+        <v>0.06498339647386309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001071722179421276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003534348207846966</v>
+      </c>
+      <c r="C26">
+        <v>0.03938733435038526</v>
+      </c>
+      <c r="D26">
+        <v>0.02136910770483949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006720092721561272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002270358866132925</v>
+      </c>
+      <c r="C28">
+        <v>0.1027684432825106</v>
+      </c>
+      <c r="D28">
+        <v>-0.3249500040086027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004529002305703811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003223516553124708</v>
+      </c>
+      <c r="C29">
+        <v>0.04751333705842716</v>
+      </c>
+      <c r="D29">
+        <v>0.01129841901809261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002204153118199919</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009235143385264809</v>
+      </c>
+      <c r="C30">
+        <v>0.1411690401097684</v>
+      </c>
+      <c r="D30">
+        <v>0.1087963993605614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002142126876390013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006211430294951751</v>
+      </c>
+      <c r="C31">
+        <v>0.04398401168136018</v>
+      </c>
+      <c r="D31">
+        <v>0.03191623203913655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0007389324678316372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004297616326597569</v>
+      </c>
+      <c r="C32">
+        <v>0.03908288978576992</v>
+      </c>
+      <c r="D32">
+        <v>0.01994527571527556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0007300029225397129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008838048135045282</v>
+      </c>
+      <c r="C33">
+        <v>0.09049080434517896</v>
+      </c>
+      <c r="D33">
+        <v>0.06271442964742582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0006866404746872436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004551823452479432</v>
+      </c>
+      <c r="C34">
+        <v>0.05792246691485968</v>
+      </c>
+      <c r="D34">
+        <v>0.05809208851188023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002190016528038328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005291271891590668</v>
+      </c>
+      <c r="C35">
+        <v>0.04066507556815242</v>
+      </c>
+      <c r="D35">
+        <v>0.01483397259012705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004165552527502203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001374779843052919</v>
+      </c>
+      <c r="C36">
+        <v>0.02533243394073754</v>
+      </c>
+      <c r="D36">
+        <v>0.0225304232195736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002902714547768146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008978821236503795</v>
+      </c>
+      <c r="C38">
+        <v>0.04104298722972656</v>
+      </c>
+      <c r="D38">
+        <v>0.01226807147023533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01083425302001859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001946715277162842</v>
+      </c>
+      <c r="C39">
+        <v>0.1122154392942365</v>
+      </c>
+      <c r="D39">
+        <v>0.08002913953723281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003567295730453452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002663290964437063</v>
+      </c>
+      <c r="C40">
+        <v>0.09144998733901437</v>
+      </c>
+      <c r="D40">
+        <v>0.01735441501370764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.00259407334782593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007507694581630633</v>
+      </c>
+      <c r="C41">
+        <v>0.04128491687475048</v>
+      </c>
+      <c r="D41">
+        <v>0.04024576180192845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001558357703156083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003959726695247471</v>
+      </c>
+      <c r="C43">
+        <v>0.05406548108692933</v>
+      </c>
+      <c r="D43">
+        <v>0.02785663859880761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007347087527282053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001841657624214146</v>
+      </c>
+      <c r="C44">
+        <v>0.1047458242744597</v>
+      </c>
+      <c r="D44">
+        <v>0.06849737522938984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001081589652188443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001564459328635835</v>
+      </c>
+      <c r="C46">
+        <v>0.03276263550545428</v>
+      </c>
+      <c r="D46">
+        <v>0.03321437824300708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-9.874907437289256e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002812871522527899</v>
+      </c>
+      <c r="C47">
+        <v>0.03553295433733725</v>
+      </c>
+      <c r="D47">
+        <v>0.02202608654518916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004970454671662194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007612025610186999</v>
+      </c>
+      <c r="C48">
+        <v>0.03316725842625685</v>
+      </c>
+      <c r="D48">
+        <v>0.03151640831713019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005300347614494529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01728759348959771</v>
+      </c>
+      <c r="C49">
+        <v>0.1861806302932117</v>
+      </c>
+      <c r="D49">
+        <v>0.006190814312057201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-4.966347392056865e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004085194119306213</v>
+      </c>
+      <c r="C50">
+        <v>0.04304132273556922</v>
+      </c>
+      <c r="D50">
+        <v>0.03990753404523389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-4.243879824005787e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003823843231728012</v>
+      </c>
+      <c r="C51">
+        <v>0.02645194932439166</v>
+      </c>
+      <c r="D51">
+        <v>0.02410711800148218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.009190252088392333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02157991290354283</v>
+      </c>
+      <c r="C53">
+        <v>0.1717901423336632</v>
+      </c>
+      <c r="D53">
+        <v>0.02036935290853064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004058017159515856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009457433433364824</v>
+      </c>
+      <c r="C54">
+        <v>0.05679004423263946</v>
+      </c>
+      <c r="D54">
+        <v>0.04132478658163665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002276253784432552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01010989258713668</v>
+      </c>
+      <c r="C55">
+        <v>0.1086423160853508</v>
+      </c>
+      <c r="D55">
+        <v>0.03635963524465399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01008035571123829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02149561528001168</v>
+      </c>
+      <c r="C56">
+        <v>0.1744826003576154</v>
+      </c>
+      <c r="D56">
+        <v>0.01434290021307713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001507565406690714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01648707673218365</v>
+      </c>
+      <c r="C58">
+        <v>0.107294530742929</v>
+      </c>
+      <c r="D58">
+        <v>0.06700274259053693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002652101977862486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009337829733225779</v>
+      </c>
+      <c r="C59">
+        <v>0.1680147079343922</v>
+      </c>
+      <c r="D59">
+        <v>-0.345636508154103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00931493907135612</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02626224113803188</v>
+      </c>
+      <c r="C60">
+        <v>0.2233632847460027</v>
+      </c>
+      <c r="D60">
+        <v>0.01566167841217565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009767946389099953</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002082047963855309</v>
+      </c>
+      <c r="C61">
+        <v>0.09377410354485961</v>
+      </c>
+      <c r="D61">
+        <v>0.05913259281392463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.150220868505294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1526584342593326</v>
+      </c>
+      <c r="C62">
+        <v>0.1016871868207196</v>
+      </c>
+      <c r="D62">
+        <v>0.01646116552684565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001800519715705988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00659219583512452</v>
+      </c>
+      <c r="C63">
+        <v>0.05354111057150202</v>
+      </c>
+      <c r="D63">
+        <v>0.03459814438751242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01098016535534139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01698289787101773</v>
+      </c>
+      <c r="C64">
+        <v>0.1063572236240071</v>
+      </c>
+      <c r="D64">
+        <v>0.05415196350260676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008886980732878682</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01810791588781421</v>
+      </c>
+      <c r="C65">
+        <v>0.1207108480070567</v>
+      </c>
+      <c r="D65">
+        <v>0.02717659549798952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0004045740001366374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01300291638564759</v>
+      </c>
+      <c r="C66">
+        <v>0.1599754940951857</v>
+      </c>
+      <c r="D66">
+        <v>0.1129411007402963</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006226387231639009</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01538023378067</v>
+      </c>
+      <c r="C67">
+        <v>0.0734619464714996</v>
+      </c>
+      <c r="D67">
+        <v>0.02264593039733592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004857158378102497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>2.057634159869861e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08471035826027354</v>
+      </c>
+      <c r="D68">
+        <v>-0.2573916838741921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-9.68375163127428e-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006179224242877</v>
+      </c>
+      <c r="C69">
+        <v>0.05249351438373996</v>
+      </c>
+      <c r="D69">
+        <v>0.03849953579957545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.00138698157422428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002535580675725088</v>
+      </c>
+      <c r="C70">
+        <v>0.008601337700410798</v>
+      </c>
+      <c r="D70">
+        <v>-0.002295739926747226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001414069838449314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004598730461587872</v>
+      </c>
+      <c r="C71">
+        <v>0.08919617859319684</v>
+      </c>
+      <c r="D71">
+        <v>-0.3012330273374682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005653177011603397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01828744445225374</v>
+      </c>
+      <c r="C72">
+        <v>0.1586808397858007</v>
+      </c>
+      <c r="D72">
+        <v>0.006527669870095953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01059194227569486</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03108943683298597</v>
+      </c>
+      <c r="C73">
+        <v>0.2814564539310544</v>
+      </c>
+      <c r="D73">
+        <v>0.05408538112167714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004894845985972675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002045671710663001</v>
+      </c>
+      <c r="C74">
+        <v>0.1027686953281361</v>
+      </c>
+      <c r="D74">
+        <v>0.0336608944897587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-7.56002870227815e-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01164107140366606</v>
+      </c>
+      <c r="C75">
+        <v>0.1206904940930474</v>
+      </c>
+      <c r="D75">
+        <v>0.02797102405041626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01167770257198039</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02198846925715063</v>
+      </c>
+      <c r="C76">
+        <v>0.1462695314821739</v>
+      </c>
+      <c r="D76">
+        <v>0.0582840521248404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007500468520236289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02135689250179056</v>
+      </c>
+      <c r="C77">
+        <v>0.1102895687614958</v>
+      </c>
+      <c r="D77">
+        <v>0.04810911077266904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005271606516915093</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01432114583367624</v>
+      </c>
+      <c r="C78">
+        <v>0.09880509600088222</v>
+      </c>
+      <c r="D78">
+        <v>0.08250975110912405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02826300560681938</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03931146224109181</v>
+      </c>
+      <c r="C79">
+        <v>0.1572294058268467</v>
+      </c>
+      <c r="D79">
+        <v>0.03057417144044045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00638721026739264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009410330128374623</v>
+      </c>
+      <c r="C80">
+        <v>0.03995417285895171</v>
+      </c>
+      <c r="D80">
+        <v>0.03119384039558867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005557592262229468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01628270850267382</v>
+      </c>
+      <c r="C81">
+        <v>0.1307711601554626</v>
+      </c>
+      <c r="D81">
+        <v>0.0382281163438469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00849413060095644</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01978173725432588</v>
+      </c>
+      <c r="C82">
+        <v>0.1363347112677353</v>
+      </c>
+      <c r="D82">
+        <v>0.03651738040219874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003934584289977922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01224783004328704</v>
+      </c>
+      <c r="C83">
+        <v>0.06474910256395414</v>
+      </c>
+      <c r="D83">
+        <v>0.04495027786101397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.00422324347041793</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006363776996484538</v>
+      </c>
+      <c r="C84">
+        <v>0.034510761665993</v>
+      </c>
+      <c r="D84">
+        <v>0.01100325637737129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01958012679139117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02923313428272416</v>
+      </c>
+      <c r="C85">
+        <v>0.1236451002099427</v>
+      </c>
+      <c r="D85">
+        <v>0.04051824658365812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002209661998206702</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003861371847002557</v>
+      </c>
+      <c r="C86">
+        <v>0.05043651160486635</v>
+      </c>
+      <c r="D86">
+        <v>0.02573704721975992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001867930217590652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01163603474310959</v>
+      </c>
+      <c r="C87">
+        <v>0.1287489329950297</v>
+      </c>
+      <c r="D87">
+        <v>0.07309839197655534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008359751760202899</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002921982037419415</v>
+      </c>
+      <c r="C88">
+        <v>0.06335708277586723</v>
+      </c>
+      <c r="D88">
+        <v>0.02898402737929331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01164835814411894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003135786644412774</v>
+      </c>
+      <c r="C89">
+        <v>0.134720140285356</v>
+      </c>
+      <c r="D89">
+        <v>-0.3159270841361305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002090822945650598</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005468541496173529</v>
+      </c>
+      <c r="C90">
+        <v>0.1159526940747647</v>
+      </c>
+      <c r="D90">
+        <v>-0.3136697861093185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00315701926563225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01125973392367842</v>
+      </c>
+      <c r="C91">
+        <v>0.09911000670190306</v>
+      </c>
+      <c r="D91">
+        <v>0.02962290706114158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005984251875827511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004699860230633114</v>
+      </c>
+      <c r="C92">
+        <v>0.1297320081738046</v>
+      </c>
+      <c r="D92">
+        <v>-0.3264516064407005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002109630812565886</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003041877338272903</v>
+      </c>
+      <c r="C93">
+        <v>0.1040548724218774</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010386986929833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01086594647592786</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02226293594227104</v>
+      </c>
+      <c r="C94">
+        <v>0.140220480583883</v>
+      </c>
+      <c r="D94">
+        <v>0.05539082922441292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007346874160464786</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01598391938258959</v>
+      </c>
+      <c r="C95">
+        <v>0.1207473069779716</v>
+      </c>
+      <c r="D95">
+        <v>0.06684597498392369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0178902673312252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03745579390836161</v>
+      </c>
+      <c r="C97">
+        <v>0.225714215702278</v>
+      </c>
+      <c r="D97">
+        <v>-0.002007676599349003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01303322147789333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03931635216529906</v>
+      </c>
+      <c r="C98">
+        <v>0.2615147278676339</v>
+      </c>
+      <c r="D98">
+        <v>0.02769188222995154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9863270021786096</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806435466880066</v>
+      </c>
+      <c r="C99">
+        <v>-0.1210234196535696</v>
+      </c>
+      <c r="D99">
+        <v>-0.02475355532853164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004762193352616118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00320586514457941</v>
+      </c>
+      <c r="C101">
+        <v>0.04762702458539522</v>
+      </c>
+      <c r="D101">
+        <v>0.01178367011853911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
